--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AR)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AR).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AR)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AR).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | AC 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,9 +530,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ar
-Ara
-Arabidopsis - fam. Brassicacées
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ara</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arabidopsis - fam. Brassicacées
 Arabidopsis suecica
 Arabidopsis thaliana - Arabette des dames
 Arabis - fam. Brassicacées
@@ -556,9 +576,47 @@
 Araucaria araucana - photo
 Araucaria heterophylla - Araucaria élevé ou « Pin de l'Île Norfolk »
 Arauja - (liane grimpante)
-Arauja sericofera
-Arb
-Arbutus - fam. Ericaceae  (Arbuste à fruits comestibles)
+Arauja sericofera</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Arb</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arbutus - fam. Ericaceae  (Arbuste à fruits comestibles)
 Arbutus andrachne - Arbousier
 Arbutus ×andrachnoides - Arbousier
 Arbutus glandulosa - Arbousier
@@ -567,9 +625,47 @@
 Arbutus unedo compacta - photo
 Arbutus unedo quercifolia
 Arbutus unedo rubra - photo
-Arbutus xalapensis - Arbousier
-Arc
-Arceuthobium
+Arbutus xalapensis - Arbousier</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Arc</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arceuthobium
 Arceuthobium pusillum
 Archontophoenix - fam. Arécacées (palmier)
 Archontophoenix alexandrae
@@ -588,9 +684,47 @@
 Arctostaphylos uva-ursi - Raisin d'ours ou « Busserole » - photo1, photo2
 Arctotis - fam. Astéracées
 Arctotis acaulis -  Arctotis acaule
-Arctotis grandis -  Grand Arctotis
-Are
-Areca - fam. Arécacées (palmier)
+Arctotis grandis -  Grand Arctotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Are</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Areca - fam. Arécacées (palmier)
 Areca catechu
 Aremonia - fam. Rosacées
 Aremonia agrimonoides
@@ -609,12 +743,88 @@
 Arenifera spinescens
 Arenifera stylosa
 Arethusa
-Arethusa bulbosa
-Arg
-Argyranthemum - fam. Astéracées
-Argyranthemum sp. - Marguerite annuelle
-Ari
-Arisaema
+Arethusa bulbosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Arg</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Argyranthemum - fam. Astéracées
+Argyranthemum sp. - Marguerite annuelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ari</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Arisaema
 Arisaema dracontium
 Arisarum - fam. Aracées
 Arisarum vulgare
@@ -632,9 +842,47 @@
 Aristolochia sempervirens
 Aristolochia triloba (zone néotropicale)
 Aristotelia
-Aristotelia chilensis - photo
-Arm
-Armeria - fam. Plumbaginaceae
+Aristotelia chilensis - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Arm</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Armeria - fam. Plumbaginaceae
 Armeria alpina - Armérie des Alpes
 Armeria formosa - Armérie de Formose
 Armeria juniperifolia -
@@ -648,18 +896,94 @@
 Armeria soleirolii - Armérie de Soleirol
 Armoracia - fam. Brassicaceae
 Armoracia lacustris
-Armoracia rusticana - Raifort
-Arn
-Arnica - fam. Astéracées
+Armoracia rusticana - Raifort</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Arn</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Arnica - fam. Astéracées
 Arnica chamissonis - Arnica - photo
 Arnica chamissonis foliosa - Arnica
 Arnica lonchophylla -  Arnica des montagnes
 Arnica montana - Arnica des montagnes, ou « Herbe à tabac », « Tabac des Vosges », « Tabac des Savoyards », « Souci des Alpes »
 Arnica mollis - Arnica
 Arnoseris - fam. Astéracées
-Arnoseris minima Arnoséris minime ou chicorée du mouton
-Aro
-Aronia
+Arnoseris minima Arnoséris minime ou chicorée du mouton</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Aronia
 Aronia arbutifolia - Aronia - photo
 Aronia arbutifolia brilliant
 Aronia arbutifolia erecta - photo
@@ -679,14 +1003,90 @@
 Aronia prunifolia hugin
 Aronia prunifolia karhumaeki
 Aronia prunifolia serina - photo
-Aronia prunifolia viking
-Arr
-Arrhenatherum - fam. Poacées ou Graminées
+Aronia prunifolia viking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Arr</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Arrhenatherum - fam. Poacées ou Graminées
 Arrhenatherum bulbosum - Avoine à chapelet
 Arrhenatherum bulbosum variegatum - photo
-Arrhenatherum elatius
-Art
-Artemisia - fam. Astéracées ou Composées - photo
+Arrhenatherum elatius</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Artemisia - fam. Astéracées ou Composées - photo
 Artemisia arborescens powis
 Artemisia abrotanum - Armoise aurone
 Artemisia absinthium - Absinthe
@@ -705,9 +1105,47 @@
 Arthrocnemum perenne - Salicorne pérenne
 Artocarpus - fam. Moracées (arbre fruitier)
 Artocarpus altilis - Arbre à pain
-Artocarpus integrifolia - Jacquier
-Aru
-Arum - fam. Aracées
+Artocarpus integrifolia - Jacquier</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AR)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Aru</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arum - fam. Aracées
 Arum italicum - Arum d'Italie - photo
 Arum maculatum - Gouet tacheté
 Aruncus - fam. Rosacées
